--- a/data/data_lab_all.xlsx
+++ b/data/data_lab_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201802/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53135ADC-CFB5-3D46-817D-713FEA484D71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0FE48-0CD9-2148-B029-2E37CBED0F89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1320" windowWidth="32580" windowHeight="23740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11660" yWindow="2300" windowWidth="32580" windowHeight="23740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -749,13 +749,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:BH1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BK9" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1048,17 +1048,17 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="60" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="60" width="4.7109375" customWidth="1"/>
     <col min="61" max="61" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:61">
       <c r="A2" s="1" t="s">
@@ -1427,7 +1427,7 @@
         <f>SUM(E3:BG3)</f>
         <v>0</v>
       </c>
-      <c r="BI3" s="10">
+      <c r="BI3" s="8">
         <f>BH3/55*20</f>
         <v>0</v>
       </c>
@@ -1614,7 +1614,7 @@
         <f t="shared" ref="BH4:BH67" si="0">SUM(E4:BG4)</f>
         <v>9.4999999999999982</v>
       </c>
-      <c r="BI4" s="10">
+      <c r="BI4" s="8">
         <f t="shared" ref="BI4:BI67" si="1">BH4/55*20</f>
         <v>3.4545454545454541</v>
       </c>
@@ -1801,7 +1801,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BI5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1988,7 +1988,7 @@
         <f t="shared" si="0"/>
         <v>49.4</v>
       </c>
-      <c r="BI6" s="10">
+      <c r="BI6" s="8">
         <f t="shared" si="1"/>
         <v>17.963636363636365</v>
       </c>
@@ -2175,7 +2175,7 @@
         <f t="shared" si="0"/>
         <v>44.399999999999984</v>
       </c>
-      <c r="BI7" s="10">
+      <c r="BI7" s="8">
         <f t="shared" si="1"/>
         <v>16.145454545454541</v>
       </c>
@@ -2362,7 +2362,7 @@
         <f t="shared" si="0"/>
         <v>51.999999999999979</v>
       </c>
-      <c r="BI8" s="10">
+      <c r="BI8" s="8">
         <f t="shared" si="1"/>
         <v>18.909090909090903</v>
       </c>
@@ -2549,7 +2549,7 @@
         <f t="shared" si="0"/>
         <v>20.900000000000009</v>
       </c>
-      <c r="BI9" s="10">
+      <c r="BI9" s="8">
         <f t="shared" si="1"/>
         <v>7.6000000000000032</v>
       </c>
@@ -2736,7 +2736,7 @@
         <f t="shared" si="0"/>
         <v>48.999999999999986</v>
       </c>
-      <c r="BI10" s="10">
+      <c r="BI10" s="8">
         <f t="shared" si="1"/>
         <v>17.818181818181813</v>
       </c>
@@ -2923,7 +2923,7 @@
         <f t="shared" si="0"/>
         <v>44.2</v>
       </c>
-      <c r="BI11" s="10">
+      <c r="BI11" s="8">
         <f t="shared" si="1"/>
         <v>16.072727272727274</v>
       </c>
@@ -3110,7 +3110,7 @@
         <f t="shared" si="0"/>
         <v>16.200000000000003</v>
       </c>
-      <c r="BI12" s="10">
+      <c r="BI12" s="8">
         <f t="shared" si="1"/>
         <v>5.8909090909090924</v>
       </c>
@@ -3297,7 +3297,7 @@
         <f t="shared" si="0"/>
         <v>4.6999999999999975</v>
       </c>
-      <c r="BI13" s="10">
+      <c r="BI13" s="8">
         <f t="shared" si="1"/>
         <v>1.7090909090909081</v>
       </c>
@@ -3484,7 +3484,7 @@
         <f t="shared" si="0"/>
         <v>18.900000000000006</v>
       </c>
-      <c r="BI14" s="10">
+      <c r="BI14" s="8">
         <f t="shared" si="1"/>
         <v>6.8727272727272748</v>
       </c>
@@ -3671,7 +3671,7 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="BI15" s="10">
+      <c r="BI15" s="8">
         <f t="shared" si="1"/>
         <v>3.6363636363636362E-2</v>
       </c>
@@ -3858,7 +3858,7 @@
         <f t="shared" si="0"/>
         <v>13.300000000000008</v>
       </c>
-      <c r="BI16" s="10">
+      <c r="BI16" s="8">
         <f t="shared" si="1"/>
         <v>4.8363636363636395</v>
       </c>
@@ -4045,7 +4045,7 @@
         <f t="shared" si="0"/>
         <v>22.600000000000005</v>
       </c>
-      <c r="BI17" s="10">
+      <c r="BI17" s="8">
         <f t="shared" si="1"/>
         <v>8.2181818181818205</v>
       </c>
@@ -4232,7 +4232,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI18" s="10">
+      <c r="BI18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4419,7 +4419,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BI19" s="10">
+      <c r="BI19" s="8">
         <f t="shared" si="1"/>
         <v>1.8181818181818183</v>
       </c>
@@ -4606,7 +4606,7 @@
         <f t="shared" si="0"/>
         <v>13.200000000000006</v>
       </c>
-      <c r="BI20" s="10">
+      <c r="BI20" s="8">
         <f t="shared" si="1"/>
         <v>4.8000000000000025</v>
       </c>
@@ -4793,7 +4793,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI21" s="10">
+      <c r="BI21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4980,7 +4980,7 @@
         <f t="shared" si="0"/>
         <v>43.599999999999994</v>
       </c>
-      <c r="BI22" s="10">
+      <c r="BI22" s="8">
         <f t="shared" si="1"/>
         <v>15.854545454545452</v>
       </c>
@@ -5167,7 +5167,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI23" s="10">
+      <c r="BI23" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5354,7 +5354,7 @@
         <f t="shared" si="0"/>
         <v>20.400000000000002</v>
       </c>
-      <c r="BI24" s="10">
+      <c r="BI24" s="8">
         <f t="shared" si="1"/>
         <v>7.4181818181818198</v>
       </c>
@@ -5541,7 +5541,7 @@
         <f t="shared" si="0"/>
         <v>46.999999999999979</v>
       </c>
-      <c r="BI25" s="10">
+      <c r="BI25" s="8">
         <f t="shared" si="1"/>
         <v>17.090909090909083</v>
       </c>
@@ -5728,7 +5728,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BI26" s="10">
+      <c r="BI26" s="8">
         <f t="shared" si="1"/>
         <v>1.8181818181818183</v>
       </c>
@@ -5915,7 +5915,7 @@
         <f t="shared" si="0"/>
         <v>15.6</v>
       </c>
-      <c r="BI27" s="10">
+      <c r="BI27" s="8">
         <f t="shared" si="1"/>
         <v>5.6727272727272728</v>
       </c>
@@ -6102,7 +6102,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI28" s="10">
+      <c r="BI28" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6289,7 +6289,7 @@
         <f t="shared" si="0"/>
         <v>16.999999999999996</v>
       </c>
-      <c r="BI29" s="10">
+      <c r="BI29" s="8">
         <f t="shared" si="1"/>
         <v>6.1818181818181808</v>
       </c>
@@ -6476,7 +6476,7 @@
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="BI30" s="10">
+      <c r="BI30" s="8">
         <f t="shared" si="1"/>
         <v>3.5636363636363639</v>
       </c>
@@ -6663,7 +6663,7 @@
         <f t="shared" si="0"/>
         <v>21.499999999999996</v>
       </c>
-      <c r="BI31" s="10">
+      <c r="BI31" s="8">
         <f t="shared" si="1"/>
         <v>7.8181818181818166</v>
       </c>
@@ -6850,7 +6850,7 @@
         <f t="shared" si="0"/>
         <v>49.8</v>
       </c>
-      <c r="BI32" s="10">
+      <c r="BI32" s="8">
         <f t="shared" si="1"/>
         <v>18.109090909090909</v>
       </c>
@@ -7037,7 +7037,7 @@
         <f t="shared" si="0"/>
         <v>20.599999999999991</v>
       </c>
-      <c r="BI33" s="10">
+      <c r="BI33" s="8">
         <f t="shared" si="1"/>
         <v>7.4909090909090885</v>
       </c>
@@ -7224,7 +7224,7 @@
         <f t="shared" si="0"/>
         <v>50.199999999999996</v>
       </c>
-      <c r="BI34" s="10">
+      <c r="BI34" s="8">
         <f t="shared" si="1"/>
         <v>18.25454545454545</v>
       </c>
@@ -7411,7 +7411,7 @@
         <f t="shared" si="0"/>
         <v>18.499999999999989</v>
       </c>
-      <c r="BI35" s="10">
+      <c r="BI35" s="8">
         <f t="shared" si="1"/>
         <v>6.7272727272727231</v>
       </c>
@@ -7598,7 +7598,7 @@
         <f t="shared" si="0"/>
         <v>19.399999999999991</v>
       </c>
-      <c r="BI36" s="10">
+      <c r="BI36" s="8">
         <f t="shared" si="1"/>
         <v>7.0545454545454511</v>
       </c>
@@ -7785,7 +7785,7 @@
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
-      <c r="BI37" s="10">
+      <c r="BI37" s="8">
         <f t="shared" si="1"/>
         <v>13.527272727272727</v>
       </c>
@@ -7972,7 +7972,7 @@
         <f t="shared" si="0"/>
         <v>49.8</v>
       </c>
-      <c r="BI38" s="10">
+      <c r="BI38" s="8">
         <f t="shared" si="1"/>
         <v>18.109090909090909</v>
       </c>
@@ -8159,7 +8159,7 @@
         <f t="shared" si="0"/>
         <v>39.199999999999989</v>
       </c>
-      <c r="BI39" s="10">
+      <c r="BI39" s="8">
         <f t="shared" si="1"/>
         <v>14.25454545454545</v>
       </c>
@@ -8346,7 +8346,7 @@
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="BI40" s="10">
+      <c r="BI40" s="8">
         <f t="shared" si="1"/>
         <v>3.9272727272727277</v>
       </c>
@@ -8533,7 +8533,7 @@
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="BI41" s="10">
+      <c r="BI41" s="8">
         <f t="shared" si="1"/>
         <v>11.090909090909092</v>
       </c>
@@ -8720,7 +8720,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI42" s="10">
+      <c r="BI42" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8907,7 +8907,7 @@
         <f t="shared" si="0"/>
         <v>27.499999999999993</v>
       </c>
-      <c r="BI43" s="10">
+      <c r="BI43" s="8">
         <f t="shared" si="1"/>
         <v>9.9999999999999982</v>
       </c>
@@ -9094,7 +9094,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BI44" s="10">
+      <c r="BI44" s="8">
         <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
@@ -9281,7 +9281,7 @@
         <f t="shared" si="0"/>
         <v>22.799999999999997</v>
       </c>
-      <c r="BI45" s="10">
+      <c r="BI45" s="8">
         <f t="shared" si="1"/>
         <v>8.2909090909090892</v>
       </c>
@@ -9468,7 +9468,7 @@
         <f t="shared" si="0"/>
         <v>52.399999999999991</v>
       </c>
-      <c r="BI46" s="10">
+      <c r="BI46" s="8">
         <f t="shared" si="1"/>
         <v>19.054545454545451</v>
       </c>
@@ -9655,7 +9655,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BI47" s="10">
+      <c r="BI47" s="8">
         <f t="shared" si="1"/>
         <v>19.636363636363637</v>
       </c>
@@ -9842,7 +9842,7 @@
         <f t="shared" si="0"/>
         <v>49.399999999999991</v>
       </c>
-      <c r="BI48" s="10">
+      <c r="BI48" s="8">
         <f t="shared" si="1"/>
         <v>17.963636363636361</v>
       </c>
@@ -10029,7 +10029,7 @@
         <f t="shared" si="0"/>
         <v>45.799999999999983</v>
       </c>
-      <c r="BI49" s="10">
+      <c r="BI49" s="8">
         <f t="shared" si="1"/>
         <v>16.654545454545449</v>
       </c>
@@ -10216,7 +10216,7 @@
         <f t="shared" si="0"/>
         <v>39.999999999999993</v>
       </c>
-      <c r="BI50" s="10">
+      <c r="BI50" s="8">
         <f t="shared" si="1"/>
         <v>14.545454545454543</v>
       </c>
@@ -10403,7 +10403,7 @@
         <f t="shared" si="0"/>
         <v>38.200000000000003</v>
       </c>
-      <c r="BI51" s="10">
+      <c r="BI51" s="8">
         <f t="shared" si="1"/>
         <v>13.890909090909091</v>
       </c>
@@ -10590,7 +10590,7 @@
         <f t="shared" si="0"/>
         <v>12.200000000000001</v>
       </c>
-      <c r="BI52" s="10">
+      <c r="BI52" s="8">
         <f t="shared" si="1"/>
         <v>4.4363636363636365</v>
       </c>
@@ -10777,7 +10777,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="BI53" s="10">
+      <c r="BI53" s="8">
         <f t="shared" si="1"/>
         <v>15.636363636363637</v>
       </c>
@@ -10964,7 +10964,7 @@
         <f t="shared" si="0"/>
         <v>45.599999999999973</v>
       </c>
-      <c r="BI54" s="10">
+      <c r="BI54" s="8">
         <f t="shared" si="1"/>
         <v>16.581818181818171</v>
       </c>
@@ -11151,7 +11151,7 @@
         <f t="shared" si="0"/>
         <v>45.8</v>
       </c>
-      <c r="BI55" s="10">
+      <c r="BI55" s="8">
         <f t="shared" si="1"/>
         <v>16.654545454545453</v>
       </c>
@@ -11338,7 +11338,7 @@
         <f t="shared" si="0"/>
         <v>45.000000000000007</v>
       </c>
-      <c r="BI56" s="10">
+      <c r="BI56" s="8">
         <f t="shared" si="1"/>
         <v>16.363636363636367</v>
       </c>
@@ -11525,7 +11525,7 @@
         <f t="shared" si="0"/>
         <v>41.000000000000007</v>
       </c>
-      <c r="BI57" s="10">
+      <c r="BI57" s="8">
         <f t="shared" si="1"/>
         <v>14.909090909090912</v>
       </c>
@@ -11712,7 +11712,7 @@
         <f t="shared" si="0"/>
         <v>51.000000000000007</v>
       </c>
-      <c r="BI58" s="10">
+      <c r="BI58" s="8">
         <f t="shared" si="1"/>
         <v>18.545454545454547</v>
       </c>
@@ -11899,7 +11899,7 @@
         <f t="shared" si="0"/>
         <v>24.599999999999991</v>
       </c>
-      <c r="BI59" s="10">
+      <c r="BI59" s="8">
         <f t="shared" si="1"/>
         <v>8.9454545454545418</v>
       </c>
@@ -12086,7 +12086,7 @@
         <f t="shared" si="0"/>
         <v>38.79999999999999</v>
       </c>
-      <c r="BI60" s="10">
+      <c r="BI60" s="8">
         <f t="shared" si="1"/>
         <v>14.109090909090904</v>
       </c>
@@ -12273,7 +12273,7 @@
         <f t="shared" si="0"/>
         <v>30.000000000000007</v>
       </c>
-      <c r="BI61" s="10">
+      <c r="BI61" s="8">
         <f t="shared" si="1"/>
         <v>10.909090909090914</v>
       </c>
@@ -12460,7 +12460,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="BI62" s="10">
+      <c r="BI62" s="8">
         <f t="shared" si="1"/>
         <v>2.9090909090909092</v>
       </c>
@@ -12647,7 +12647,7 @@
         <f t="shared" si="0"/>
         <v>12.100000000000009</v>
       </c>
-      <c r="BI63" s="10">
+      <c r="BI63" s="8">
         <f t="shared" si="1"/>
         <v>4.400000000000003</v>
       </c>
@@ -12834,7 +12834,7 @@
         <f t="shared" si="0"/>
         <v>44.199999999999982</v>
       </c>
-      <c r="BI64" s="10">
+      <c r="BI64" s="8">
         <f t="shared" si="1"/>
         <v>16.072727272727263</v>
       </c>
@@ -13021,7 +13021,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BI65" s="10">
+      <c r="BI65" s="8">
         <f t="shared" si="1"/>
         <v>17.818181818181817</v>
       </c>
@@ -13208,7 +13208,7 @@
         <f t="shared" si="0"/>
         <v>24.800000000000004</v>
       </c>
-      <c r="BI66" s="10">
+      <c r="BI66" s="8">
         <f t="shared" si="1"/>
         <v>9.0181818181818194</v>
       </c>
@@ -13395,7 +13395,7 @@
         <f t="shared" si="0"/>
         <v>51.8</v>
       </c>
-      <c r="BI67" s="10">
+      <c r="BI67" s="8">
         <f t="shared" si="1"/>
         <v>18.836363636363636</v>
       </c>
@@ -13582,7 +13582,7 @@
         <f t="shared" ref="BH68:BH131" si="2">SUM(E68:BG68)</f>
         <v>51.399999999999991</v>
       </c>
-      <c r="BI68" s="10">
+      <c r="BI68" s="8">
         <f t="shared" ref="BI68:BI131" si="3">BH68/55*20</f>
         <v>18.690909090909088</v>
       </c>
@@ -13769,7 +13769,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI69" s="10">
+      <c r="BI69" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13956,7 +13956,7 @@
         <f t="shared" si="2"/>
         <v>53.8</v>
       </c>
-      <c r="BI70" s="10">
+      <c r="BI70" s="8">
         <f t="shared" si="3"/>
         <v>19.563636363636363</v>
       </c>
@@ -14143,7 +14143,7 @@
         <f t="shared" si="2"/>
         <v>35.599999999999994</v>
       </c>
-      <c r="BI71" s="10">
+      <c r="BI71" s="8">
         <f t="shared" si="3"/>
         <v>12.945454545454545</v>
       </c>
@@ -14330,7 +14330,7 @@
         <f t="shared" si="2"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="BI72" s="10">
+      <c r="BI72" s="8">
         <f t="shared" si="3"/>
         <v>10.472727272727271</v>
       </c>
@@ -14517,7 +14517,7 @@
         <f t="shared" si="2"/>
         <v>17.79999999999999</v>
       </c>
-      <c r="BI73" s="10">
+      <c r="BI73" s="8">
         <f t="shared" si="3"/>
         <v>6.4727272727272691</v>
       </c>
@@ -14704,7 +14704,7 @@
         <f t="shared" si="2"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="BI74" s="10">
+      <c r="BI74" s="8">
         <f t="shared" si="3"/>
         <v>18.399999999999999</v>
       </c>
@@ -14891,7 +14891,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="BI75" s="10">
+      <c r="BI75" s="8">
         <f t="shared" si="3"/>
         <v>5.8181818181818183</v>
       </c>
@@ -15078,7 +15078,7 @@
         <f t="shared" si="2"/>
         <v>50.4</v>
       </c>
-      <c r="BI76" s="10">
+      <c r="BI76" s="8">
         <f t="shared" si="3"/>
         <v>18.327272727272728</v>
       </c>
@@ -15265,7 +15265,7 @@
         <f t="shared" si="2"/>
         <v>42.79999999999999</v>
       </c>
-      <c r="BI77" s="10">
+      <c r="BI77" s="8">
         <f t="shared" si="3"/>
         <v>15.563636363636359</v>
       </c>
@@ -15452,7 +15452,7 @@
         <f t="shared" si="2"/>
         <v>14.200000000000006</v>
       </c>
-      <c r="BI78" s="10">
+      <c r="BI78" s="8">
         <f t="shared" si="3"/>
         <v>5.1636363636363658</v>
       </c>
@@ -15639,7 +15639,7 @@
         <f t="shared" si="2"/>
         <v>23.699999999999989</v>
       </c>
-      <c r="BI79" s="10">
+      <c r="BI79" s="8">
         <f t="shared" si="3"/>
         <v>8.6181818181818137</v>
       </c>
@@ -15826,7 +15826,7 @@
         <f t="shared" si="2"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="BI80" s="10">
+      <c r="BI80" s="8">
         <f t="shared" si="3"/>
         <v>11.927272727272726</v>
       </c>
@@ -16013,7 +16013,7 @@
         <f t="shared" si="2"/>
         <v>52.59999999999998</v>
       </c>
-      <c r="BI81" s="10">
+      <c r="BI81" s="8">
         <f t="shared" si="3"/>
         <v>19.127272727272718</v>
       </c>
@@ -16200,7 +16200,7 @@
         <f t="shared" si="2"/>
         <v>23.199999999999989</v>
       </c>
-      <c r="BI82" s="10">
+      <c r="BI82" s="8">
         <f t="shared" si="3"/>
         <v>8.4363636363636321</v>
       </c>
@@ -16387,7 +16387,7 @@
         <f t="shared" si="2"/>
         <v>27.199999999999989</v>
       </c>
-      <c r="BI83" s="10">
+      <c r="BI83" s="8">
         <f t="shared" si="3"/>
         <v>9.8909090909090871</v>
       </c>
@@ -16574,7 +16574,7 @@
         <f t="shared" si="2"/>
         <v>53.099999999999994</v>
       </c>
-      <c r="BI84" s="10">
+      <c r="BI84" s="8">
         <f t="shared" si="3"/>
         <v>19.309090909090905</v>
       </c>
@@ -16761,7 +16761,7 @@
         <f t="shared" si="2"/>
         <v>47.599999999999994</v>
       </c>
-      <c r="BI85" s="10">
+      <c r="BI85" s="8">
         <f t="shared" si="3"/>
         <v>17.309090909090909</v>
       </c>
@@ -16948,7 +16948,7 @@
         <f t="shared" si="2"/>
         <v>52.199999999999974</v>
       </c>
-      <c r="BI86" s="10">
+      <c r="BI86" s="8">
         <f t="shared" si="3"/>
         <v>18.981818181818173</v>
       </c>
@@ -17135,7 +17135,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI87" s="10">
+      <c r="BI87" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -17322,7 +17322,7 @@
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="BI88" s="10">
+      <c r="BI88" s="8">
         <f t="shared" si="3"/>
         <v>0.4363636363636364</v>
       </c>
@@ -17509,7 +17509,7 @@
         <f t="shared" si="2"/>
         <v>33.699999999999989</v>
       </c>
-      <c r="BI89" s="10">
+      <c r="BI89" s="8">
         <f t="shared" si="3"/>
         <v>12.25454545454545</v>
       </c>
@@ -17696,7 +17696,7 @@
         <f t="shared" si="2"/>
         <v>23.9</v>
       </c>
-      <c r="BI90" s="10">
+      <c r="BI90" s="8">
         <f t="shared" si="3"/>
         <v>8.6909090909090896</v>
       </c>
@@ -17883,7 +17883,7 @@
         <f t="shared" si="2"/>
         <v>42.400000000000006</v>
       </c>
-      <c r="BI91" s="10">
+      <c r="BI91" s="8">
         <f t="shared" si="3"/>
         <v>15.41818181818182</v>
       </c>
@@ -18070,7 +18070,7 @@
         <f t="shared" si="2"/>
         <v>13.800000000000002</v>
       </c>
-      <c r="BI92" s="10">
+      <c r="BI92" s="8">
         <f t="shared" si="3"/>
         <v>5.0181818181818194</v>
       </c>
@@ -18257,7 +18257,7 @@
         <f t="shared" si="2"/>
         <v>45.4</v>
       </c>
-      <c r="BI93" s="10">
+      <c r="BI93" s="8">
         <f t="shared" si="3"/>
         <v>16.509090909090908</v>
       </c>
@@ -18444,7 +18444,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI94" s="10">
+      <c r="BI94" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -18631,7 +18631,7 @@
         <f t="shared" si="2"/>
         <v>28.800000000000004</v>
       </c>
-      <c r="BI95" s="10">
+      <c r="BI95" s="8">
         <f t="shared" si="3"/>
         <v>10.472727272727273</v>
       </c>
@@ -18818,7 +18818,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI96" s="10">
+      <c r="BI96" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -19005,7 +19005,7 @@
         <f t="shared" si="2"/>
         <v>13.300000000000008</v>
       </c>
-      <c r="BI97" s="10">
+      <c r="BI97" s="8">
         <f t="shared" si="3"/>
         <v>4.8363636363636395</v>
       </c>
@@ -19192,7 +19192,7 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="BI98" s="10">
+      <c r="BI98" s="8">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -19379,7 +19379,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="BI99" s="10">
+      <c r="BI99" s="8">
         <f t="shared" si="3"/>
         <v>1.4545454545454546</v>
       </c>
@@ -19566,7 +19566,7 @@
         <f t="shared" si="2"/>
         <v>12.000000000000004</v>
       </c>
-      <c r="BI100" s="10">
+      <c r="BI100" s="8">
         <f t="shared" si="3"/>
         <v>4.3636363636363651</v>
       </c>
@@ -19753,7 +19753,7 @@
         <f t="shared" si="2"/>
         <v>52.799999999999983</v>
       </c>
-      <c r="BI101" s="10">
+      <c r="BI101" s="8">
         <f t="shared" si="3"/>
         <v>19.199999999999996</v>
       </c>
@@ -19940,7 +19940,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI102" s="10">
+      <c r="BI102" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20127,7 +20127,7 @@
         <f t="shared" si="2"/>
         <v>16.2</v>
       </c>
-      <c r="BI103" s="10">
+      <c r="BI103" s="8">
         <f t="shared" si="3"/>
         <v>5.8909090909090907</v>
       </c>
@@ -20314,7 +20314,7 @@
         <f t="shared" si="2"/>
         <v>51.199999999999996</v>
       </c>
-      <c r="BI104" s="10">
+      <c r="BI104" s="8">
         <f t="shared" si="3"/>
         <v>18.618181818181817</v>
       </c>
@@ -20501,7 +20501,7 @@
         <f t="shared" si="2"/>
         <v>48.2</v>
       </c>
-      <c r="BI105" s="10">
+      <c r="BI105" s="8">
         <f t="shared" si="3"/>
         <v>17.527272727272731</v>
       </c>
@@ -20688,7 +20688,7 @@
         <f t="shared" si="2"/>
         <v>31.200000000000006</v>
       </c>
-      <c r="BI106" s="10">
+      <c r="BI106" s="8">
         <f t="shared" si="3"/>
         <v>11.345454545454547</v>
       </c>
@@ -20875,7 +20875,7 @@
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="BI107" s="10">
+      <c r="BI107" s="8">
         <f t="shared" si="3"/>
         <v>0.94545454545454544</v>
       </c>
@@ -21062,7 +21062,7 @@
         <f t="shared" si="2"/>
         <v>35.200000000000017</v>
       </c>
-      <c r="BI108" s="10">
+      <c r="BI108" s="8">
         <f t="shared" si="3"/>
         <v>12.800000000000008</v>
       </c>
@@ -21249,7 +21249,7 @@
         <f t="shared" si="2"/>
         <v>24.699999999999989</v>
       </c>
-      <c r="BI109" s="10">
+      <c r="BI109" s="8">
         <f t="shared" si="3"/>
         <v>8.981818181818177</v>
       </c>
@@ -21436,7 +21436,7 @@
         <f t="shared" si="2"/>
         <v>12.600000000000001</v>
       </c>
-      <c r="BI110" s="10">
+      <c r="BI110" s="8">
         <f t="shared" si="3"/>
         <v>4.581818181818182</v>
       </c>
@@ -21623,7 +21623,7 @@
         <f t="shared" si="2"/>
         <v>41.399999999999991</v>
       </c>
-      <c r="BI111" s="10">
+      <c r="BI111" s="8">
         <f t="shared" si="3"/>
         <v>15.054545454545451</v>
       </c>
@@ -21810,7 +21810,7 @@
         <f t="shared" si="2"/>
         <v>24.699999999999989</v>
       </c>
-      <c r="BI112" s="10">
+      <c r="BI112" s="8">
         <f t="shared" si="3"/>
         <v>8.981818181818177</v>
       </c>
@@ -21997,7 +21997,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="BI113" s="10">
+      <c r="BI113" s="8">
         <f t="shared" si="3"/>
         <v>18.545454545454547</v>
       </c>
@@ -22184,7 +22184,7 @@
         <f t="shared" si="2"/>
         <v>49.799999999999983</v>
       </c>
-      <c r="BI114" s="10">
+      <c r="BI114" s="8">
         <f t="shared" si="3"/>
         <v>18.109090909090902</v>
       </c>
@@ -22371,7 +22371,7 @@
         <f t="shared" si="2"/>
         <v>47.399999999999984</v>
       </c>
-      <c r="BI115" s="10">
+      <c r="BI115" s="8">
         <f t="shared" si="3"/>
         <v>17.236363636363631</v>
       </c>
@@ -22558,7 +22558,7 @@
         <f t="shared" si="2"/>
         <v>48.8</v>
       </c>
-      <c r="BI116" s="10">
+      <c r="BI116" s="8">
         <f t="shared" si="3"/>
         <v>17.745454545454542</v>
       </c>
@@ -22745,7 +22745,7 @@
         <f t="shared" si="2"/>
         <v>52.8</v>
       </c>
-      <c r="BI117" s="10">
+      <c r="BI117" s="8">
         <f t="shared" si="3"/>
         <v>19.2</v>
       </c>
@@ -22932,7 +22932,7 @@
         <f t="shared" si="2"/>
         <v>52.499999999999993</v>
       </c>
-      <c r="BI118" s="10">
+      <c r="BI118" s="8">
         <f t="shared" si="3"/>
         <v>19.090909090909086</v>
       </c>
@@ -23119,7 +23119,7 @@
         <f t="shared" si="2"/>
         <v>22.899999999999988</v>
       </c>
-      <c r="BI119" s="10">
+      <c r="BI119" s="8">
         <f t="shared" si="3"/>
         <v>8.3272727272727227</v>
       </c>
@@ -23306,7 +23306,7 @@
         <f t="shared" si="2"/>
         <v>44.2</v>
       </c>
-      <c r="BI120" s="10">
+      <c r="BI120" s="8">
         <f t="shared" si="3"/>
         <v>16.072727272727274</v>
       </c>
@@ -23493,7 +23493,7 @@
         <f t="shared" si="2"/>
         <v>49.799999999999983</v>
       </c>
-      <c r="BI121" s="10">
+      <c r="BI121" s="8">
         <f t="shared" si="3"/>
         <v>18.109090909090902</v>
       </c>
@@ -23680,7 +23680,7 @@
         <f t="shared" si="2"/>
         <v>21.300000000000008</v>
       </c>
-      <c r="BI122" s="10">
+      <c r="BI122" s="8">
         <f t="shared" si="3"/>
         <v>7.7454545454545487</v>
       </c>
@@ -23867,7 +23867,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="BI123" s="10">
+      <c r="BI123" s="8">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -24054,7 +24054,7 @@
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
-      <c r="BI124" s="10">
+      <c r="BI124" s="8">
         <f t="shared" si="3"/>
         <v>3.9272727272727277</v>
       </c>
@@ -24241,7 +24241,7 @@
         <f t="shared" si="2"/>
         <v>35.799999999999997</v>
       </c>
-      <c r="BI125" s="10">
+      <c r="BI125" s="8">
         <f t="shared" si="3"/>
         <v>13.018181818181818</v>
       </c>
@@ -24428,7 +24428,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="BI126" s="10">
+      <c r="BI126" s="8">
         <f t="shared" si="3"/>
         <v>2.9090909090909092</v>
       </c>
@@ -24615,7 +24615,7 @@
         <f t="shared" si="2"/>
         <v>52.199999999999996</v>
       </c>
-      <c r="BI127" s="10">
+      <c r="BI127" s="8">
         <f t="shared" si="3"/>
         <v>18.981818181818181</v>
       </c>
@@ -24802,7 +24802,7 @@
         <f t="shared" si="2"/>
         <v>48.599999999999994</v>
       </c>
-      <c r="BI128" s="10">
+      <c r="BI128" s="8">
         <f t="shared" si="3"/>
         <v>17.672727272727272</v>
       </c>
@@ -24989,7 +24989,7 @@
         <f t="shared" si="2"/>
         <v>27.800000000000004</v>
       </c>
-      <c r="BI129" s="10">
+      <c r="BI129" s="8">
         <f t="shared" si="3"/>
         <v>10.109090909090909</v>
       </c>
@@ -25176,7 +25176,7 @@
         <f t="shared" si="2"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="BI130" s="10">
+      <c r="BI130" s="8">
         <f t="shared" si="3"/>
         <v>5.454545454545455</v>
       </c>
@@ -25363,7 +25363,7 @@
         <f t="shared" si="2"/>
         <v>18.699999999999985</v>
       </c>
-      <c r="BI131" s="10">
+      <c r="BI131" s="8">
         <f t="shared" si="3"/>
         <v>6.7999999999999954</v>
       </c>
@@ -25550,7 +25550,7 @@
         <f t="shared" ref="BH132:BH154" si="4">SUM(E132:BG132)</f>
         <v>25.399999999999988</v>
       </c>
-      <c r="BI132" s="10">
+      <c r="BI132" s="8">
         <f t="shared" ref="BI132:BI154" si="5">BH132/55*20</f>
         <v>9.236363636363631</v>
       </c>
@@ -25737,7 +25737,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BI133" s="10">
+      <c r="BI133" s="8">
         <f t="shared" si="5"/>
         <v>1.0909090909090908</v>
       </c>
@@ -25924,7 +25924,7 @@
         <f t="shared" si="4"/>
         <v>17.100000000000009</v>
       </c>
-      <c r="BI134" s="10">
+      <c r="BI134" s="8">
         <f t="shared" si="5"/>
         <v>6.2181818181818214</v>
       </c>
@@ -26111,7 +26111,7 @@
         <f t="shared" si="4"/>
         <v>25.299999999999986</v>
       </c>
-      <c r="BI135" s="10">
+      <c r="BI135" s="8">
         <f t="shared" si="5"/>
         <v>9.1999999999999957</v>
       </c>
@@ -26298,7 +26298,7 @@
         <f t="shared" si="4"/>
         <v>52.8</v>
       </c>
-      <c r="BI136" s="10">
+      <c r="BI136" s="8">
         <f t="shared" si="5"/>
         <v>19.2</v>
       </c>
@@ -26485,7 +26485,7 @@
         <f t="shared" si="4"/>
         <v>21.8</v>
       </c>
-      <c r="BI137" s="10">
+      <c r="BI137" s="8">
         <f t="shared" si="5"/>
         <v>7.9272727272727277</v>
       </c>
@@ -26672,7 +26672,7 @@
         <f t="shared" si="4"/>
         <v>48.400999999999996</v>
       </c>
-      <c r="BI138" s="10">
+      <c r="BI138" s="8">
         <f t="shared" si="5"/>
         <v>17.600363636363635</v>
       </c>
@@ -26859,7 +26859,7 @@
         <f t="shared" si="4"/>
         <v>53.399999999999977</v>
       </c>
-      <c r="BI139" s="10">
+      <c r="BI139" s="8">
         <f t="shared" si="5"/>
         <v>19.418181818181811</v>
       </c>
@@ -27046,7 +27046,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="BI140" s="10">
+      <c r="BI140" s="8">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -27233,7 +27233,7 @@
         <f t="shared" si="4"/>
         <v>11.200000000000001</v>
       </c>
-      <c r="BI141" s="10">
+      <c r="BI141" s="8">
         <f t="shared" si="5"/>
         <v>4.0727272727272732</v>
       </c>
@@ -27420,7 +27420,7 @@
         <f t="shared" si="4"/>
         <v>44.599999999999994</v>
       </c>
-      <c r="BI142" s="10">
+      <c r="BI142" s="8">
         <f t="shared" si="5"/>
         <v>16.218181818181815</v>
       </c>
@@ -27607,7 +27607,7 @@
         <f t="shared" si="4"/>
         <v>50.399999999999963</v>
       </c>
-      <c r="BI143" s="10">
+      <c r="BI143" s="8">
         <f t="shared" si="5"/>
         <v>18.327272727272714</v>
       </c>
@@ -27794,7 +27794,7 @@
         <f t="shared" si="4"/>
         <v>51.59999999999998</v>
       </c>
-      <c r="BI144" s="10">
+      <c r="BI144" s="8">
         <f t="shared" si="5"/>
         <v>18.763636363636355</v>
       </c>
@@ -27981,7 +27981,7 @@
         <f t="shared" si="4"/>
         <v>19.600000000000001</v>
       </c>
-      <c r="BI145" s="10">
+      <c r="BI145" s="8">
         <f t="shared" si="5"/>
         <v>7.1272727272727279</v>
       </c>
@@ -28168,7 +28168,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BI146" s="10">
+      <c r="BI146" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -28355,7 +28355,7 @@
         <f t="shared" si="4"/>
         <v>40.800000000000011</v>
       </c>
-      <c r="BI147" s="10">
+      <c r="BI147" s="8">
         <f t="shared" si="5"/>
         <v>14.836363636363641</v>
       </c>
@@ -28542,7 +28542,7 @@
         <f t="shared" si="4"/>
         <v>17.000000000000004</v>
       </c>
-      <c r="BI148" s="10">
+      <c r="BI148" s="8">
         <f t="shared" si="5"/>
         <v>6.1818181818181825</v>
       </c>
@@ -28729,7 +28729,7 @@
         <f t="shared" si="4"/>
         <v>12.000000000000004</v>
       </c>
-      <c r="BI149" s="10">
+      <c r="BI149" s="8">
         <f t="shared" si="5"/>
         <v>4.3636363636363651</v>
       </c>
@@ -28916,7 +28916,7 @@
         <f t="shared" si="4"/>
         <v>40.79999999999999</v>
       </c>
-      <c r="BI150" s="10">
+      <c r="BI150" s="8">
         <f t="shared" si="5"/>
         <v>14.836363636363632</v>
       </c>
@@ -29103,7 +29103,7 @@
         <f t="shared" si="4"/>
         <v>43.999999999999986</v>
       </c>
-      <c r="BI151" s="10">
+      <c r="BI151" s="8">
         <f t="shared" si="5"/>
         <v>15.999999999999995</v>
       </c>
@@ -29290,7 +29290,7 @@
         <f t="shared" si="4"/>
         <v>51.599999999999994</v>
       </c>
-      <c r="BI152" s="10">
+      <c r="BI152" s="8">
         <f t="shared" si="5"/>
         <v>18.763636363636362</v>
       </c>
@@ -29477,7 +29477,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="BI153" s="10">
+      <c r="BI153" s="8">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -29664,7 +29664,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BI154" s="10">
+      <c r="BI154" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>

--- a/data/data_lab_all.xlsx
+++ b/data/data_lab_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201802/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0FE48-0CD9-2148-B029-2E37CBED0F89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC62B09B-44E0-264F-BDA2-DF640C964D3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11660" yWindow="2300" windowWidth="32580" windowHeight="23740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,13 +749,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1038,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BK17" sqref="BK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1049,16 +1050,16 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="60" width="4.7109375" customWidth="1"/>
-    <col min="61" max="61" width="8.140625" customWidth="1"/>
+    <col min="61" max="61" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:61">
       <c r="A2" s="1" t="s">
@@ -1241,7 +1242,7 @@
       <c r="BH2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1427,7 +1428,7 @@
         <f>SUM(E3:BG3)</f>
         <v>0</v>
       </c>
-      <c r="BI3" s="8">
+      <c r="BI3" s="11">
         <f>BH3/55*20</f>
         <v>0</v>
       </c>
@@ -1614,7 +1615,7 @@
         <f t="shared" ref="BH4:BH67" si="0">SUM(E4:BG4)</f>
         <v>9.4999999999999982</v>
       </c>
-      <c r="BI4" s="8">
+      <c r="BI4" s="11">
         <f t="shared" ref="BI4:BI67" si="1">BH4/55*20</f>
         <v>3.4545454545454541</v>
       </c>
@@ -1801,7 +1802,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI5" s="8">
+      <c r="BI5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1988,7 +1989,7 @@
         <f t="shared" si="0"/>
         <v>49.4</v>
       </c>
-      <c r="BI6" s="8">
+      <c r="BI6" s="11">
         <f t="shared" si="1"/>
         <v>17.963636363636365</v>
       </c>
@@ -2175,7 +2176,7 @@
         <f t="shared" si="0"/>
         <v>44.399999999999984</v>
       </c>
-      <c r="BI7" s="8">
+      <c r="BI7" s="11">
         <f t="shared" si="1"/>
         <v>16.145454545454541</v>
       </c>
@@ -2362,7 +2363,7 @@
         <f t="shared" si="0"/>
         <v>51.999999999999979</v>
       </c>
-      <c r="BI8" s="8">
+      <c r="BI8" s="11">
         <f t="shared" si="1"/>
         <v>18.909090909090903</v>
       </c>
@@ -2549,7 +2550,7 @@
         <f t="shared" si="0"/>
         <v>20.900000000000009</v>
       </c>
-      <c r="BI9" s="8">
+      <c r="BI9" s="11">
         <f t="shared" si="1"/>
         <v>7.6000000000000032</v>
       </c>
@@ -2736,7 +2737,7 @@
         <f t="shared" si="0"/>
         <v>48.999999999999986</v>
       </c>
-      <c r="BI10" s="8">
+      <c r="BI10" s="11">
         <f t="shared" si="1"/>
         <v>17.818181818181813</v>
       </c>
@@ -2923,7 +2924,7 @@
         <f t="shared" si="0"/>
         <v>44.2</v>
       </c>
-      <c r="BI11" s="8">
+      <c r="BI11" s="11">
         <f t="shared" si="1"/>
         <v>16.072727272727274</v>
       </c>
@@ -3110,7 +3111,7 @@
         <f t="shared" si="0"/>
         <v>16.200000000000003</v>
       </c>
-      <c r="BI12" s="8">
+      <c r="BI12" s="11">
         <f t="shared" si="1"/>
         <v>5.8909090909090924</v>
       </c>
@@ -3297,7 +3298,7 @@
         <f t="shared" si="0"/>
         <v>4.6999999999999975</v>
       </c>
-      <c r="BI13" s="8">
+      <c r="BI13" s="11">
         <f t="shared" si="1"/>
         <v>1.7090909090909081</v>
       </c>
@@ -3484,7 +3485,7 @@
         <f t="shared" si="0"/>
         <v>18.900000000000006</v>
       </c>
-      <c r="BI14" s="8">
+      <c r="BI14" s="11">
         <f t="shared" si="1"/>
         <v>6.8727272727272748</v>
       </c>
@@ -3671,7 +3672,7 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="BI15" s="8">
+      <c r="BI15" s="11">
         <f t="shared" si="1"/>
         <v>3.6363636363636362E-2</v>
       </c>
@@ -3858,7 +3859,7 @@
         <f t="shared" si="0"/>
         <v>13.300000000000008</v>
       </c>
-      <c r="BI16" s="8">
+      <c r="BI16" s="11">
         <f t="shared" si="1"/>
         <v>4.8363636363636395</v>
       </c>
@@ -4045,7 +4046,7 @@
         <f t="shared" si="0"/>
         <v>22.600000000000005</v>
       </c>
-      <c r="BI17" s="8">
+      <c r="BI17" s="11">
         <f t="shared" si="1"/>
         <v>8.2181818181818205</v>
       </c>
@@ -4232,7 +4233,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI18" s="8">
+      <c r="BI18" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4419,7 +4420,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BI19" s="8">
+      <c r="BI19" s="11">
         <f t="shared" si="1"/>
         <v>1.8181818181818183</v>
       </c>
@@ -4606,7 +4607,7 @@
         <f t="shared" si="0"/>
         <v>13.200000000000006</v>
       </c>
-      <c r="BI20" s="8">
+      <c r="BI20" s="11">
         <f t="shared" si="1"/>
         <v>4.8000000000000025</v>
       </c>
@@ -4793,7 +4794,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI21" s="8">
+      <c r="BI21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4980,7 +4981,7 @@
         <f t="shared" si="0"/>
         <v>43.599999999999994</v>
       </c>
-      <c r="BI22" s="8">
+      <c r="BI22" s="11">
         <f t="shared" si="1"/>
         <v>15.854545454545452</v>
       </c>
@@ -5167,7 +5168,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI23" s="8">
+      <c r="BI23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5354,7 +5355,7 @@
         <f t="shared" si="0"/>
         <v>20.400000000000002</v>
       </c>
-      <c r="BI24" s="8">
+      <c r="BI24" s="11">
         <f t="shared" si="1"/>
         <v>7.4181818181818198</v>
       </c>
@@ -5541,7 +5542,7 @@
         <f t="shared" si="0"/>
         <v>46.999999999999979</v>
       </c>
-      <c r="BI25" s="8">
+      <c r="BI25" s="11">
         <f t="shared" si="1"/>
         <v>17.090909090909083</v>
       </c>
@@ -5728,7 +5729,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BI26" s="8">
+      <c r="BI26" s="11">
         <f t="shared" si="1"/>
         <v>1.8181818181818183</v>
       </c>
@@ -5915,7 +5916,7 @@
         <f t="shared" si="0"/>
         <v>15.6</v>
       </c>
-      <c r="BI27" s="8">
+      <c r="BI27" s="11">
         <f t="shared" si="1"/>
         <v>5.6727272727272728</v>
       </c>
@@ -6102,7 +6103,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI28" s="8">
+      <c r="BI28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6289,7 +6290,7 @@
         <f t="shared" si="0"/>
         <v>16.999999999999996</v>
       </c>
-      <c r="BI29" s="8">
+      <c r="BI29" s="11">
         <f t="shared" si="1"/>
         <v>6.1818181818181808</v>
       </c>
@@ -6476,7 +6477,7 @@
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="BI30" s="8">
+      <c r="BI30" s="11">
         <f t="shared" si="1"/>
         <v>3.5636363636363639</v>
       </c>
@@ -6663,7 +6664,7 @@
         <f t="shared" si="0"/>
         <v>21.499999999999996</v>
       </c>
-      <c r="BI31" s="8">
+      <c r="BI31" s="11">
         <f t="shared" si="1"/>
         <v>7.8181818181818166</v>
       </c>
@@ -6850,7 +6851,7 @@
         <f t="shared" si="0"/>
         <v>49.8</v>
       </c>
-      <c r="BI32" s="8">
+      <c r="BI32" s="11">
         <f t="shared" si="1"/>
         <v>18.109090909090909</v>
       </c>
@@ -7037,7 +7038,7 @@
         <f t="shared" si="0"/>
         <v>20.599999999999991</v>
       </c>
-      <c r="BI33" s="8">
+      <c r="BI33" s="11">
         <f t="shared" si="1"/>
         <v>7.4909090909090885</v>
       </c>
@@ -7224,7 +7225,7 @@
         <f t="shared" si="0"/>
         <v>50.199999999999996</v>
       </c>
-      <c r="BI34" s="8">
+      <c r="BI34" s="11">
         <f t="shared" si="1"/>
         <v>18.25454545454545</v>
       </c>
@@ -7411,7 +7412,7 @@
         <f t="shared" si="0"/>
         <v>18.499999999999989</v>
       </c>
-      <c r="BI35" s="8">
+      <c r="BI35" s="11">
         <f t="shared" si="1"/>
         <v>6.7272727272727231</v>
       </c>
@@ -7598,7 +7599,7 @@
         <f t="shared" si="0"/>
         <v>19.399999999999991</v>
       </c>
-      <c r="BI36" s="8">
+      <c r="BI36" s="11">
         <f t="shared" si="1"/>
         <v>7.0545454545454511</v>
       </c>
@@ -7785,7 +7786,7 @@
         <f t="shared" si="0"/>
         <v>37.200000000000003</v>
       </c>
-      <c r="BI37" s="8">
+      <c r="BI37" s="11">
         <f t="shared" si="1"/>
         <v>13.527272727272727</v>
       </c>
@@ -7972,7 +7973,7 @@
         <f t="shared" si="0"/>
         <v>49.8</v>
       </c>
-      <c r="BI38" s="8">
+      <c r="BI38" s="11">
         <f t="shared" si="1"/>
         <v>18.109090909090909</v>
       </c>
@@ -8159,7 +8160,7 @@
         <f t="shared" si="0"/>
         <v>39.199999999999989</v>
       </c>
-      <c r="BI39" s="8">
+      <c r="BI39" s="11">
         <f t="shared" si="1"/>
         <v>14.25454545454545</v>
       </c>
@@ -8346,7 +8347,7 @@
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="BI40" s="8">
+      <c r="BI40" s="11">
         <f t="shared" si="1"/>
         <v>3.9272727272727277</v>
       </c>
@@ -8533,7 +8534,7 @@
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="BI41" s="8">
+      <c r="BI41" s="11">
         <f t="shared" si="1"/>
         <v>11.090909090909092</v>
       </c>
@@ -8720,7 +8721,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI42" s="8">
+      <c r="BI42" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8907,7 +8908,7 @@
         <f t="shared" si="0"/>
         <v>27.499999999999993</v>
       </c>
-      <c r="BI43" s="8">
+      <c r="BI43" s="11">
         <f t="shared" si="1"/>
         <v>9.9999999999999982</v>
       </c>
@@ -9094,7 +9095,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BI44" s="8">
+      <c r="BI44" s="11">
         <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
@@ -9281,7 +9282,7 @@
         <f t="shared" si="0"/>
         <v>22.799999999999997</v>
       </c>
-      <c r="BI45" s="8">
+      <c r="BI45" s="11">
         <f t="shared" si="1"/>
         <v>8.2909090909090892</v>
       </c>
@@ -9468,7 +9469,7 @@
         <f t="shared" si="0"/>
         <v>52.399999999999991</v>
       </c>
-      <c r="BI46" s="8">
+      <c r="BI46" s="11">
         <f t="shared" si="1"/>
         <v>19.054545454545451</v>
       </c>
@@ -9655,7 +9656,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BI47" s="8">
+      <c r="BI47" s="11">
         <f t="shared" si="1"/>
         <v>19.636363636363637</v>
       </c>
@@ -9842,7 +9843,7 @@
         <f t="shared" si="0"/>
         <v>49.399999999999991</v>
       </c>
-      <c r="BI48" s="8">
+      <c r="BI48" s="11">
         <f t="shared" si="1"/>
         <v>17.963636363636361</v>
       </c>
@@ -10029,7 +10030,7 @@
         <f t="shared" si="0"/>
         <v>45.799999999999983</v>
       </c>
-      <c r="BI49" s="8">
+      <c r="BI49" s="11">
         <f t="shared" si="1"/>
         <v>16.654545454545449</v>
       </c>
@@ -10216,7 +10217,7 @@
         <f t="shared" si="0"/>
         <v>39.999999999999993</v>
       </c>
-      <c r="BI50" s="8">
+      <c r="BI50" s="11">
         <f t="shared" si="1"/>
         <v>14.545454545454543</v>
       </c>
@@ -10403,7 +10404,7 @@
         <f t="shared" si="0"/>
         <v>38.200000000000003</v>
       </c>
-      <c r="BI51" s="8">
+      <c r="BI51" s="11">
         <f t="shared" si="1"/>
         <v>13.890909090909091</v>
       </c>
@@ -10590,7 +10591,7 @@
         <f t="shared" si="0"/>
         <v>12.200000000000001</v>
       </c>
-      <c r="BI52" s="8">
+      <c r="BI52" s="11">
         <f t="shared" si="1"/>
         <v>4.4363636363636365</v>
       </c>
@@ -10777,7 +10778,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="BI53" s="8">
+      <c r="BI53" s="11">
         <f t="shared" si="1"/>
         <v>15.636363636363637</v>
       </c>
@@ -10964,7 +10965,7 @@
         <f t="shared" si="0"/>
         <v>45.599999999999973</v>
       </c>
-      <c r="BI54" s="8">
+      <c r="BI54" s="11">
         <f t="shared" si="1"/>
         <v>16.581818181818171</v>
       </c>
@@ -11151,7 +11152,7 @@
         <f t="shared" si="0"/>
         <v>45.8</v>
       </c>
-      <c r="BI55" s="8">
+      <c r="BI55" s="11">
         <f t="shared" si="1"/>
         <v>16.654545454545453</v>
       </c>
@@ -11338,7 +11339,7 @@
         <f t="shared" si="0"/>
         <v>45.000000000000007</v>
       </c>
-      <c r="BI56" s="8">
+      <c r="BI56" s="11">
         <f t="shared" si="1"/>
         <v>16.363636363636367</v>
       </c>
@@ -11525,7 +11526,7 @@
         <f t="shared" si="0"/>
         <v>41.000000000000007</v>
       </c>
-      <c r="BI57" s="8">
+      <c r="BI57" s="11">
         <f t="shared" si="1"/>
         <v>14.909090909090912</v>
       </c>
@@ -11712,7 +11713,7 @@
         <f t="shared" si="0"/>
         <v>51.000000000000007</v>
       </c>
-      <c r="BI58" s="8">
+      <c r="BI58" s="11">
         <f t="shared" si="1"/>
         <v>18.545454545454547</v>
       </c>
@@ -11899,7 +11900,7 @@
         <f t="shared" si="0"/>
         <v>24.599999999999991</v>
       </c>
-      <c r="BI59" s="8">
+      <c r="BI59" s="11">
         <f t="shared" si="1"/>
         <v>8.9454545454545418</v>
       </c>
@@ -12086,7 +12087,7 @@
         <f t="shared" si="0"/>
         <v>38.79999999999999</v>
       </c>
-      <c r="BI60" s="8">
+      <c r="BI60" s="11">
         <f t="shared" si="1"/>
         <v>14.109090909090904</v>
       </c>
@@ -12273,7 +12274,7 @@
         <f t="shared" si="0"/>
         <v>30.000000000000007</v>
       </c>
-      <c r="BI61" s="8">
+      <c r="BI61" s="11">
         <f t="shared" si="1"/>
         <v>10.909090909090914</v>
       </c>
@@ -12460,7 +12461,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="BI62" s="8">
+      <c r="BI62" s="11">
         <f t="shared" si="1"/>
         <v>2.9090909090909092</v>
       </c>
@@ -12647,7 +12648,7 @@
         <f t="shared" si="0"/>
         <v>12.100000000000009</v>
       </c>
-      <c r="BI63" s="8">
+      <c r="BI63" s="11">
         <f t="shared" si="1"/>
         <v>4.400000000000003</v>
       </c>
@@ -12834,7 +12835,7 @@
         <f t="shared" si="0"/>
         <v>44.199999999999982</v>
       </c>
-      <c r="BI64" s="8">
+      <c r="BI64" s="11">
         <f t="shared" si="1"/>
         <v>16.072727272727263</v>
       </c>
@@ -13021,7 +13022,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BI65" s="8">
+      <c r="BI65" s="11">
         <f t="shared" si="1"/>
         <v>17.818181818181817</v>
       </c>
@@ -13208,7 +13209,7 @@
         <f t="shared" si="0"/>
         <v>24.800000000000004</v>
       </c>
-      <c r="BI66" s="8">
+      <c r="BI66" s="11">
         <f t="shared" si="1"/>
         <v>9.0181818181818194</v>
       </c>
@@ -13395,7 +13396,7 @@
         <f t="shared" si="0"/>
         <v>51.8</v>
       </c>
-      <c r="BI67" s="8">
+      <c r="BI67" s="11">
         <f t="shared" si="1"/>
         <v>18.836363636363636</v>
       </c>
@@ -13582,7 +13583,7 @@
         <f t="shared" ref="BH68:BH131" si="2">SUM(E68:BG68)</f>
         <v>51.399999999999991</v>
       </c>
-      <c r="BI68" s="8">
+      <c r="BI68" s="11">
         <f t="shared" ref="BI68:BI131" si="3">BH68/55*20</f>
         <v>18.690909090909088</v>
       </c>
@@ -13769,7 +13770,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI69" s="8">
+      <c r="BI69" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -13956,7 +13957,7 @@
         <f t="shared" si="2"/>
         <v>53.8</v>
       </c>
-      <c r="BI70" s="8">
+      <c r="BI70" s="11">
         <f t="shared" si="3"/>
         <v>19.563636363636363</v>
       </c>
@@ -14143,7 +14144,7 @@
         <f t="shared" si="2"/>
         <v>35.599999999999994</v>
       </c>
-      <c r="BI71" s="8">
+      <c r="BI71" s="11">
         <f t="shared" si="3"/>
         <v>12.945454545454545</v>
       </c>
@@ -14330,7 +14331,7 @@
         <f t="shared" si="2"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="BI72" s="8">
+      <c r="BI72" s="11">
         <f t="shared" si="3"/>
         <v>10.472727272727271</v>
       </c>
@@ -14517,7 +14518,7 @@
         <f t="shared" si="2"/>
         <v>17.79999999999999</v>
       </c>
-      <c r="BI73" s="8">
+      <c r="BI73" s="11">
         <f t="shared" si="3"/>
         <v>6.4727272727272691</v>
       </c>
@@ -14704,7 +14705,7 @@
         <f t="shared" si="2"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="BI74" s="8">
+      <c r="BI74" s="11">
         <f t="shared" si="3"/>
         <v>18.399999999999999</v>
       </c>
@@ -14891,7 +14892,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="BI75" s="8">
+      <c r="BI75" s="11">
         <f t="shared" si="3"/>
         <v>5.8181818181818183</v>
       </c>
@@ -15078,7 +15079,7 @@
         <f t="shared" si="2"/>
         <v>50.4</v>
       </c>
-      <c r="BI76" s="8">
+      <c r="BI76" s="11">
         <f t="shared" si="3"/>
         <v>18.327272727272728</v>
       </c>
@@ -15265,7 +15266,7 @@
         <f t="shared" si="2"/>
         <v>42.79999999999999</v>
       </c>
-      <c r="BI77" s="8">
+      <c r="BI77" s="11">
         <f t="shared" si="3"/>
         <v>15.563636363636359</v>
       </c>
@@ -15452,7 +15453,7 @@
         <f t="shared" si="2"/>
         <v>14.200000000000006</v>
       </c>
-      <c r="BI78" s="8">
+      <c r="BI78" s="11">
         <f t="shared" si="3"/>
         <v>5.1636363636363658</v>
       </c>
@@ -15639,7 +15640,7 @@
         <f t="shared" si="2"/>
         <v>23.699999999999989</v>
       </c>
-      <c r="BI79" s="8">
+      <c r="BI79" s="11">
         <f t="shared" si="3"/>
         <v>8.6181818181818137</v>
       </c>
@@ -15826,7 +15827,7 @@
         <f t="shared" si="2"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="BI80" s="8">
+      <c r="BI80" s="11">
         <f t="shared" si="3"/>
         <v>11.927272727272726</v>
       </c>
@@ -16013,7 +16014,7 @@
         <f t="shared" si="2"/>
         <v>52.59999999999998</v>
       </c>
-      <c r="BI81" s="8">
+      <c r="BI81" s="11">
         <f t="shared" si="3"/>
         <v>19.127272727272718</v>
       </c>
@@ -16200,7 +16201,7 @@
         <f t="shared" si="2"/>
         <v>23.199999999999989</v>
       </c>
-      <c r="BI82" s="8">
+      <c r="BI82" s="11">
         <f t="shared" si="3"/>
         <v>8.4363636363636321</v>
       </c>
@@ -16387,7 +16388,7 @@
         <f t="shared" si="2"/>
         <v>27.199999999999989</v>
       </c>
-      <c r="BI83" s="8">
+      <c r="BI83" s="11">
         <f t="shared" si="3"/>
         <v>9.8909090909090871</v>
       </c>
@@ -16574,7 +16575,7 @@
         <f t="shared" si="2"/>
         <v>53.099999999999994</v>
       </c>
-      <c r="BI84" s="8">
+      <c r="BI84" s="11">
         <f t="shared" si="3"/>
         <v>19.309090909090905</v>
       </c>
@@ -16761,7 +16762,7 @@
         <f t="shared" si="2"/>
         <v>47.599999999999994</v>
       </c>
-      <c r="BI85" s="8">
+      <c r="BI85" s="11">
         <f t="shared" si="3"/>
         <v>17.309090909090909</v>
       </c>
@@ -16948,7 +16949,7 @@
         <f t="shared" si="2"/>
         <v>52.199999999999974</v>
       </c>
-      <c r="BI86" s="8">
+      <c r="BI86" s="11">
         <f t="shared" si="3"/>
         <v>18.981818181818173</v>
       </c>
@@ -17135,7 +17136,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI87" s="8">
+      <c r="BI87" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -17322,7 +17323,7 @@
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="BI88" s="8">
+      <c r="BI88" s="11">
         <f t="shared" si="3"/>
         <v>0.4363636363636364</v>
       </c>
@@ -17509,7 +17510,7 @@
         <f t="shared" si="2"/>
         <v>33.699999999999989</v>
       </c>
-      <c r="BI89" s="8">
+      <c r="BI89" s="11">
         <f t="shared" si="3"/>
         <v>12.25454545454545</v>
       </c>
@@ -17696,7 +17697,7 @@
         <f t="shared" si="2"/>
         <v>23.9</v>
       </c>
-      <c r="BI90" s="8">
+      <c r="BI90" s="11">
         <f t="shared" si="3"/>
         <v>8.6909090909090896</v>
       </c>
@@ -17883,7 +17884,7 @@
         <f t="shared" si="2"/>
         <v>42.400000000000006</v>
       </c>
-      <c r="BI91" s="8">
+      <c r="BI91" s="11">
         <f t="shared" si="3"/>
         <v>15.41818181818182</v>
       </c>
@@ -18070,7 +18071,7 @@
         <f t="shared" si="2"/>
         <v>13.800000000000002</v>
       </c>
-      <c r="BI92" s="8">
+      <c r="BI92" s="11">
         <f t="shared" si="3"/>
         <v>5.0181818181818194</v>
       </c>
@@ -18257,7 +18258,7 @@
         <f t="shared" si="2"/>
         <v>45.4</v>
       </c>
-      <c r="BI93" s="8">
+      <c r="BI93" s="11">
         <f t="shared" si="3"/>
         <v>16.509090909090908</v>
       </c>
@@ -18444,7 +18445,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI94" s="8">
+      <c r="BI94" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -18631,7 +18632,7 @@
         <f t="shared" si="2"/>
         <v>28.800000000000004</v>
       </c>
-      <c r="BI95" s="8">
+      <c r="BI95" s="11">
         <f t="shared" si="3"/>
         <v>10.472727272727273</v>
       </c>
@@ -18818,7 +18819,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI96" s="8">
+      <c r="BI96" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -19005,7 +19006,7 @@
         <f t="shared" si="2"/>
         <v>13.300000000000008</v>
       </c>
-      <c r="BI97" s="8">
+      <c r="BI97" s="11">
         <f t="shared" si="3"/>
         <v>4.8363636363636395</v>
       </c>
@@ -19192,7 +19193,7 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="BI98" s="8">
+      <c r="BI98" s="11">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -19379,7 +19380,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="BI99" s="8">
+      <c r="BI99" s="11">
         <f t="shared" si="3"/>
         <v>1.4545454545454546</v>
       </c>
@@ -19566,7 +19567,7 @@
         <f t="shared" si="2"/>
         <v>12.000000000000004</v>
       </c>
-      <c r="BI100" s="8">
+      <c r="BI100" s="11">
         <f t="shared" si="3"/>
         <v>4.3636363636363651</v>
       </c>
@@ -19753,7 +19754,7 @@
         <f t="shared" si="2"/>
         <v>52.799999999999983</v>
       </c>
-      <c r="BI101" s="8">
+      <c r="BI101" s="11">
         <f t="shared" si="3"/>
         <v>19.199999999999996</v>
       </c>
@@ -19940,7 +19941,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI102" s="8">
+      <c r="BI102" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20127,7 +20128,7 @@
         <f t="shared" si="2"/>
         <v>16.2</v>
       </c>
-      <c r="BI103" s="8">
+      <c r="BI103" s="11">
         <f t="shared" si="3"/>
         <v>5.8909090909090907</v>
       </c>
@@ -20314,7 +20315,7 @@
         <f t="shared" si="2"/>
         <v>51.199999999999996</v>
       </c>
-      <c r="BI104" s="8">
+      <c r="BI104" s="11">
         <f t="shared" si="3"/>
         <v>18.618181818181817</v>
       </c>
@@ -20501,7 +20502,7 @@
         <f t="shared" si="2"/>
         <v>48.2</v>
       </c>
-      <c r="BI105" s="8">
+      <c r="BI105" s="11">
         <f t="shared" si="3"/>
         <v>17.527272727272731</v>
       </c>
@@ -20688,7 +20689,7 @@
         <f t="shared" si="2"/>
         <v>31.200000000000006</v>
       </c>
-      <c r="BI106" s="8">
+      <c r="BI106" s="11">
         <f t="shared" si="3"/>
         <v>11.345454545454547</v>
       </c>
@@ -20875,7 +20876,7 @@
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="BI107" s="8">
+      <c r="BI107" s="11">
         <f t="shared" si="3"/>
         <v>0.94545454545454544</v>
       </c>
@@ -21062,7 +21063,7 @@
         <f t="shared" si="2"/>
         <v>35.200000000000017</v>
       </c>
-      <c r="BI108" s="8">
+      <c r="BI108" s="11">
         <f t="shared" si="3"/>
         <v>12.800000000000008</v>
       </c>
@@ -21249,7 +21250,7 @@
         <f t="shared" si="2"/>
         <v>24.699999999999989</v>
       </c>
-      <c r="BI109" s="8">
+      <c r="BI109" s="11">
         <f t="shared" si="3"/>
         <v>8.981818181818177</v>
       </c>
@@ -21436,7 +21437,7 @@
         <f t="shared" si="2"/>
         <v>12.600000000000001</v>
       </c>
-      <c r="BI110" s="8">
+      <c r="BI110" s="11">
         <f t="shared" si="3"/>
         <v>4.581818181818182</v>
       </c>
@@ -21623,7 +21624,7 @@
         <f t="shared" si="2"/>
         <v>41.399999999999991</v>
       </c>
-      <c r="BI111" s="8">
+      <c r="BI111" s="11">
         <f t="shared" si="3"/>
         <v>15.054545454545451</v>
       </c>
@@ -21810,7 +21811,7 @@
         <f t="shared" si="2"/>
         <v>24.699999999999989</v>
       </c>
-      <c r="BI112" s="8">
+      <c r="BI112" s="11">
         <f t="shared" si="3"/>
         <v>8.981818181818177</v>
       </c>
@@ -21997,7 +21998,7 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="BI113" s="8">
+      <c r="BI113" s="11">
         <f t="shared" si="3"/>
         <v>18.545454545454547</v>
       </c>
@@ -22184,7 +22185,7 @@
         <f t="shared" si="2"/>
         <v>49.799999999999983</v>
       </c>
-      <c r="BI114" s="8">
+      <c r="BI114" s="11">
         <f t="shared" si="3"/>
         <v>18.109090909090902</v>
       </c>
@@ -22371,7 +22372,7 @@
         <f t="shared" si="2"/>
         <v>47.399999999999984</v>
       </c>
-      <c r="BI115" s="8">
+      <c r="BI115" s="11">
         <f t="shared" si="3"/>
         <v>17.236363636363631</v>
       </c>
@@ -22558,7 +22559,7 @@
         <f t="shared" si="2"/>
         <v>48.8</v>
       </c>
-      <c r="BI116" s="8">
+      <c r="BI116" s="11">
         <f t="shared" si="3"/>
         <v>17.745454545454542</v>
       </c>
@@ -22745,7 +22746,7 @@
         <f t="shared" si="2"/>
         <v>52.8</v>
       </c>
-      <c r="BI117" s="8">
+      <c r="BI117" s="11">
         <f t="shared" si="3"/>
         <v>19.2</v>
       </c>
@@ -22932,7 +22933,7 @@
         <f t="shared" si="2"/>
         <v>52.499999999999993</v>
       </c>
-      <c r="BI118" s="8">
+      <c r="BI118" s="11">
         <f t="shared" si="3"/>
         <v>19.090909090909086</v>
       </c>
@@ -23119,7 +23120,7 @@
         <f t="shared" si="2"/>
         <v>22.899999999999988</v>
       </c>
-      <c r="BI119" s="8">
+      <c r="BI119" s="11">
         <f t="shared" si="3"/>
         <v>8.3272727272727227</v>
       </c>
@@ -23306,7 +23307,7 @@
         <f t="shared" si="2"/>
         <v>44.2</v>
       </c>
-      <c r="BI120" s="8">
+      <c r="BI120" s="11">
         <f t="shared" si="3"/>
         <v>16.072727272727274</v>
       </c>
@@ -23493,7 +23494,7 @@
         <f t="shared" si="2"/>
         <v>49.799999999999983</v>
       </c>
-      <c r="BI121" s="8">
+      <c r="BI121" s="11">
         <f t="shared" si="3"/>
         <v>18.109090909090902</v>
       </c>
@@ -23680,7 +23681,7 @@
         <f t="shared" si="2"/>
         <v>21.300000000000008</v>
       </c>
-      <c r="BI122" s="8">
+      <c r="BI122" s="11">
         <f t="shared" si="3"/>
         <v>7.7454545454545487</v>
       </c>
@@ -23867,7 +23868,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="BI123" s="8">
+      <c r="BI123" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -24054,7 +24055,7 @@
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
-      <c r="BI124" s="8">
+      <c r="BI124" s="11">
         <f t="shared" si="3"/>
         <v>3.9272727272727277</v>
       </c>
@@ -24241,7 +24242,7 @@
         <f t="shared" si="2"/>
         <v>35.799999999999997</v>
       </c>
-      <c r="BI125" s="8">
+      <c r="BI125" s="11">
         <f t="shared" si="3"/>
         <v>13.018181818181818</v>
       </c>
@@ -24428,7 +24429,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="BI126" s="8">
+      <c r="BI126" s="11">
         <f t="shared" si="3"/>
         <v>2.9090909090909092</v>
       </c>
@@ -24615,7 +24616,7 @@
         <f t="shared" si="2"/>
         <v>52.199999999999996</v>
       </c>
-      <c r="BI127" s="8">
+      <c r="BI127" s="11">
         <f t="shared" si="3"/>
         <v>18.981818181818181</v>
       </c>
@@ -24802,7 +24803,7 @@
         <f t="shared" si="2"/>
         <v>48.599999999999994</v>
       </c>
-      <c r="BI128" s="8">
+      <c r="BI128" s="11">
         <f t="shared" si="3"/>
         <v>17.672727272727272</v>
       </c>
@@ -24989,7 +24990,7 @@
         <f t="shared" si="2"/>
         <v>27.800000000000004</v>
       </c>
-      <c r="BI129" s="8">
+      <c r="BI129" s="11">
         <f t="shared" si="3"/>
         <v>10.109090909090909</v>
       </c>
@@ -25176,7 +25177,7 @@
         <f t="shared" si="2"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="BI130" s="8">
+      <c r="BI130" s="11">
         <f t="shared" si="3"/>
         <v>5.454545454545455</v>
       </c>
@@ -25363,7 +25364,7 @@
         <f t="shared" si="2"/>
         <v>18.699999999999985</v>
       </c>
-      <c r="BI131" s="8">
+      <c r="BI131" s="11">
         <f t="shared" si="3"/>
         <v>6.7999999999999954</v>
       </c>
@@ -25550,7 +25551,7 @@
         <f t="shared" ref="BH132:BH154" si="4">SUM(E132:BG132)</f>
         <v>25.399999999999988</v>
       </c>
-      <c r="BI132" s="8">
+      <c r="BI132" s="11">
         <f t="shared" ref="BI132:BI154" si="5">BH132/55*20</f>
         <v>9.236363636363631</v>
       </c>
@@ -25737,7 +25738,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BI133" s="8">
+      <c r="BI133" s="11">
         <f t="shared" si="5"/>
         <v>1.0909090909090908</v>
       </c>
@@ -25924,7 +25925,7 @@
         <f t="shared" si="4"/>
         <v>17.100000000000009</v>
       </c>
-      <c r="BI134" s="8">
+      <c r="BI134" s="11">
         <f t="shared" si="5"/>
         <v>6.2181818181818214</v>
       </c>
@@ -26111,7 +26112,7 @@
         <f t="shared" si="4"/>
         <v>25.299999999999986</v>
       </c>
-      <c r="BI135" s="8">
+      <c r="BI135" s="11">
         <f t="shared" si="5"/>
         <v>9.1999999999999957</v>
       </c>
@@ -26298,7 +26299,7 @@
         <f t="shared" si="4"/>
         <v>52.8</v>
       </c>
-      <c r="BI136" s="8">
+      <c r="BI136" s="11">
         <f t="shared" si="5"/>
         <v>19.2</v>
       </c>
@@ -26485,7 +26486,7 @@
         <f t="shared" si="4"/>
         <v>21.8</v>
       </c>
-      <c r="BI137" s="8">
+      <c r="BI137" s="11">
         <f t="shared" si="5"/>
         <v>7.9272727272727277</v>
       </c>
@@ -26672,7 +26673,7 @@
         <f t="shared" si="4"/>
         <v>48.400999999999996</v>
       </c>
-      <c r="BI138" s="8">
+      <c r="BI138" s="11">
         <f t="shared" si="5"/>
         <v>17.600363636363635</v>
       </c>
@@ -26859,7 +26860,7 @@
         <f t="shared" si="4"/>
         <v>53.399999999999977</v>
       </c>
-      <c r="BI139" s="8">
+      <c r="BI139" s="11">
         <f t="shared" si="5"/>
         <v>19.418181818181811</v>
       </c>
@@ -27046,7 +27047,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="BI140" s="8">
+      <c r="BI140" s="11">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -27233,7 +27234,7 @@
         <f t="shared" si="4"/>
         <v>11.200000000000001</v>
       </c>
-      <c r="BI141" s="8">
+      <c r="BI141" s="11">
         <f t="shared" si="5"/>
         <v>4.0727272727272732</v>
       </c>
@@ -27420,7 +27421,7 @@
         <f t="shared" si="4"/>
         <v>44.599999999999994</v>
       </c>
-      <c r="BI142" s="8">
+      <c r="BI142" s="11">
         <f t="shared" si="5"/>
         <v>16.218181818181815</v>
       </c>
@@ -27607,7 +27608,7 @@
         <f t="shared" si="4"/>
         <v>50.399999999999963</v>
       </c>
-      <c r="BI143" s="8">
+      <c r="BI143" s="11">
         <f t="shared" si="5"/>
         <v>18.327272727272714</v>
       </c>
@@ -27794,7 +27795,7 @@
         <f t="shared" si="4"/>
         <v>51.59999999999998</v>
       </c>
-      <c r="BI144" s="8">
+      <c r="BI144" s="11">
         <f t="shared" si="5"/>
         <v>18.763636363636355</v>
       </c>
@@ -27981,7 +27982,7 @@
         <f t="shared" si="4"/>
         <v>19.600000000000001</v>
       </c>
-      <c r="BI145" s="8">
+      <c r="BI145" s="11">
         <f t="shared" si="5"/>
         <v>7.1272727272727279</v>
       </c>
@@ -28168,7 +28169,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BI146" s="8">
+      <c r="BI146" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -28355,7 +28356,7 @@
         <f t="shared" si="4"/>
         <v>40.800000000000011</v>
       </c>
-      <c r="BI147" s="8">
+      <c r="BI147" s="11">
         <f t="shared" si="5"/>
         <v>14.836363636363641</v>
       </c>
@@ -28542,7 +28543,7 @@
         <f t="shared" si="4"/>
         <v>17.000000000000004</v>
       </c>
-      <c r="BI148" s="8">
+      <c r="BI148" s="11">
         <f t="shared" si="5"/>
         <v>6.1818181818181825</v>
       </c>
@@ -28729,7 +28730,7 @@
         <f t="shared" si="4"/>
         <v>12.000000000000004</v>
       </c>
-      <c r="BI149" s="8">
+      <c r="BI149" s="11">
         <f t="shared" si="5"/>
         <v>4.3636363636363651</v>
       </c>
@@ -28916,7 +28917,7 @@
         <f t="shared" si="4"/>
         <v>40.79999999999999</v>
       </c>
-      <c r="BI150" s="8">
+      <c r="BI150" s="11">
         <f t="shared" si="5"/>
         <v>14.836363636363632</v>
       </c>
@@ -29103,7 +29104,7 @@
         <f t="shared" si="4"/>
         <v>43.999999999999986</v>
       </c>
-      <c r="BI151" s="8">
+      <c r="BI151" s="11">
         <f t="shared" si="5"/>
         <v>15.999999999999995</v>
       </c>
@@ -29290,7 +29291,7 @@
         <f t="shared" si="4"/>
         <v>51.599999999999994</v>
       </c>
-      <c r="BI152" s="8">
+      <c r="BI152" s="11">
         <f t="shared" si="5"/>
         <v>18.763636363636362</v>
       </c>
@@ -29477,7 +29478,7 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="BI153" s="8">
+      <c r="BI153" s="11">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -29664,7 +29665,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BI154" s="8">
+      <c r="BI154" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
